--- a/REGULAR/OJT/DIGO, VIRGILIO.xlsx
+++ b/REGULAR/OJT/DIGO, VIRGILIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>6/2-7/3/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1214,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1257,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1321,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1381,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1447,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1510,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1608,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1667,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1732,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1775,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1850,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2036,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2102,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2160,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2226,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2282,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2357,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2400,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2466,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2522,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2620,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2683,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2749,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K338" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K345" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3121,12 +3127,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K338"/>
+  <dimension ref="A2:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A312" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K325" sqref="K325"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3295,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>284.3</v>
+        <v>299.3</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3299,7 +3305,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>466.75</v>
+        <v>486.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9698,7 +9704,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13">
@@ -9718,7 +9724,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B321" s="20" t="s">
         <v>99</v>
@@ -9744,16 +9750,18 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
@@ -9762,16 +9770,18 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
@@ -9780,16 +9790,18 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="13"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D324" s="39"/>
       <c r="E324" s="9"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
@@ -9798,18 +9810,20 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B325" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C325" s="13"/>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H325" s="39">
         <v>21</v>
@@ -9822,16 +9836,18 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B326" s="20"/>
-      <c r="C326" s="13"/>
+      <c r="C326" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D326" s="39"/>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G326" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
@@ -9840,16 +9856,18 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B327" s="20"/>
-      <c r="C327" s="13"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D327" s="39"/>
       <c r="E327" s="9"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
@@ -9858,16 +9876,18 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="13"/>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D328" s="39"/>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
@@ -9876,16 +9896,18 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B329" s="20"/>
-      <c r="C329" s="13"/>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D329" s="39"/>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
@@ -9894,16 +9916,18 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B330" s="20"/>
-      <c r="C330" s="13"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
@@ -9912,16 +9936,22 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
-        <v>45261</v>
-      </c>
-      <c r="B331" s="20"/>
-      <c r="C331" s="13"/>
-      <c r="D331" s="39"/>
+        <v>45291</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D331" s="39">
+        <v>5</v>
+      </c>
       <c r="E331" s="9"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
@@ -9929,7 +9959,9 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="40"/>
+      <c r="A332" s="48" t="s">
+        <v>103</v>
+      </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
@@ -9945,15 +9977,19 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="40"/>
+      <c r="A333" s="23">
+        <v>45322</v>
+      </c>
       <c r="B333" s="20"/>
-      <c r="C333" s="13"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D333" s="39"/>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
@@ -9961,15 +9997,19 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="40"/>
+      <c r="A334" s="23">
+        <v>45351</v>
+      </c>
       <c r="B334" s="20"/>
-      <c r="C334" s="13"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D334" s="39"/>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
@@ -9977,15 +10017,19 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="40"/>
+      <c r="A335" s="23">
+        <v>45382</v>
+      </c>
       <c r="B335" s="20"/>
-      <c r="C335" s="13"/>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D335" s="39"/>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
@@ -9993,15 +10037,19 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="40"/>
+      <c r="A336" s="23">
+        <v>45412</v>
+      </c>
       <c r="B336" s="20"/>
-      <c r="C336" s="13"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D336" s="39"/>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
@@ -10009,15 +10057,19 @@
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="40"/>
+      <c r="A337" s="23">
+        <v>45443</v>
+      </c>
       <c r="B337" s="20"/>
-      <c r="C337" s="13"/>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D337" s="39"/>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
@@ -10025,20 +10077,150 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="41"/>
-      <c r="B338" s="15"/>
-      <c r="C338" s="42"/>
-      <c r="D338" s="43"/>
+      <c r="A338" s="23">
+        <v>45473</v>
+      </c>
+      <c r="B338" s="20"/>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D338" s="39"/>
       <c r="E338" s="9"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="42" t="str">
+      <c r="F338" s="20"/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="23">
+        <v>45504</v>
+      </c>
+      <c r="B339" s="15"/>
+      <c r="C339" s="42"/>
+      <c r="D339" s="43"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="15"/>
+      <c r="G339" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H338" s="43"/>
-      <c r="I338" s="9"/>
-      <c r="J338" s="12"/>
-      <c r="K338" s="15"/>
+      <c r="H339" s="43"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="12"/>
+      <c r="K339" s="15"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="23">
+        <v>45535</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="23">
+        <v>45565</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="23">
+        <v>45596</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="23">
+        <v>45626</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="23">
+        <v>45657</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="23">
+        <v>45688</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10086,7 +10268,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10180,6 +10362,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10201,6 +10386,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>786.05</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
